--- a/__기말__/멀미_안드.xlsx
+++ b/__기말__/멀미_안드.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gag41\Desktop\3학년 1학기\__기말__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\2019\__기말__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343167E6-63A1-4589-8255-EBA233E9E472}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020078D3-45C1-49FA-9A66-BCD8EBEC62FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7954C76-E151-46A2-8456-885793C6AF0E}"/>
+    <workbookView xWindow="12950" yWindow="2100" windowWidth="12060" windowHeight="13190" activeTab="1" xr2:uid="{E7954C76-E151-46A2-8456-885793C6AF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="멀미" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>교재 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,226 @@
   </si>
   <si>
     <t>8-2 : 0502실습.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-1. Adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전략 : 필요한거 먼저 공부하자.
+뷰=디자인 은 나중에.
+기능 구현에 집중하자. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-2. 커스텀 Adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-1. Spannable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-2. WebView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-3. 다양한 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-1. ActionBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-2. Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-1. 커스텀 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-1. 인텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-2. 구글 기본 앱 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-1. 액티비티의 생명주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-2. 액티비티 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-1. 스레드-핸들러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-2. AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-3. Looper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-1. Fragment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-2. ViewPager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-3. RecyclerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-1. NavigationView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-2. TableLayout, 
+FloatingActionButton, Snackbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-3. CoordinatorLayout 
+- AppBarLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-4. Button Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-1. 브로드캐스트 리시버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-2. 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-1. 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-2. AIDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-3. 시스템 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-1. 콘텐츠 프로바이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-2. 주소록, 갤러리 앱 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-1. LocationManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-2. Fused Location API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-1. 지도 출력까지의 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-2. GoogleMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-1. 네트워크 정보 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-2. 데이터 파싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-1. HTTP 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-2. Volley API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-3. Glide API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-1. 소켓 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-2. Firebase 클라우드 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-1. SMS 송수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-2. 센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-3. 블루투스 채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-1. Camera API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-2. Camera2 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29-1. 앱 위젯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29-2. Collection 타입 앱 위젯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝낸 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 10:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:26 (어렵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:03 (어렵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +482,30 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +530,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -380,13 +670,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +810,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70795E3B-6C1B-44F7-B7F9-DABF52FC1762}">
   <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1438,15 +1925,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4102C-516C-42A6-BADB-EB2BC3A0B1E3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.54296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="16"/>
+    <col min="5" max="5" width="10.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="42" x14ac:dyDescent="0.35">
+      <c r="C2" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="37"/>
+      <c r="C15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0.47361111111111115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="37"/>
+      <c r="C17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="2:5" ht="28" x14ac:dyDescent="0.35">
+      <c r="C27" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="2:5" ht="28" x14ac:dyDescent="0.35">
+      <c r="C28" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="37"/>
+      <c r="C31" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="38"/>
+      <c r="C33" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="20"/>
+      <c r="C34" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="20"/>
+      <c r="C35" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="39"/>
+      <c r="C36" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="48">
+        <v>0.25347222222222221</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="20"/>
+      <c r="C37" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="20"/>
+      <c r="C38" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="20"/>
+      <c r="C39" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="20"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="20"/>
+      <c r="C41" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="20"/>
+      <c r="C42" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="20"/>
+      <c r="C43" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="39"/>
+      <c r="C44" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="48">
+        <v>0.33055555555555555</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="39"/>
+      <c r="C45" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="46"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="50"/>
+      <c r="C46" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="49"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="50"/>
+      <c r="C47" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="49"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="39"/>
+      <c r="C48" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="46"/>
+    </row>
+    <row r="49" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="40"/>
+      <c r="C49" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="46"/>
+    </row>
+    <row r="50" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C51" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C52" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C53" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C55" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D19:D20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>